--- a/sample.xlsx
+++ b/sample.xlsx
@@ -14,10 +14,10 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1604119176" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1604119176" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1604119176" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1604119176"/>
+      <pm:revision xmlns:pm="smNativeData" day="1604182612" val="976" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1604182612" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1604182612" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1604182612"/>
     </ext>
   </extLst>
 </workbook>
@@ -242,7 +242,7 @@
     <t>Coffee</t>
   </si>
   <si>
-    <t xml:space="preserve"> Colombia[4]</t>
+    <t xml:space="preserve"> Colombia</t>
   </si>
   <si>
     <t xml:space="preserve"> Indonesia</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve"> Italy</t>
   </si>
   <si>
-    <t xml:space="preserve"> France[5]</t>
+    <t xml:space="preserve"> France</t>
   </si>
   <si>
     <t xml:space="preserve"> Chile</t>
@@ -302,7 +302,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604119176" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604182612" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -318,7 +318,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1604119176" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1604182612" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -340,7 +340,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1604119176" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1604182612" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -362,7 +362,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604119176"/>
+          <pm:border xmlns:pm="smNativeData" id="1604182612"/>
         </ext>
       </extLst>
     </border>
@@ -381,7 +381,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1604119176"/>
+          <pm:border xmlns:pm="smNativeData" id="1604182612"/>
         </ext>
       </extLst>
     </border>
@@ -389,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -417,12 +417,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -433,7 +427,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1604119176" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1604182612" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -1433,7 +1427,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1604119176" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1604182612" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1442,16 +1436,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1604119176" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1604119176" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1604119176" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1604119176" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1604182612" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1604182612" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1604182612" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1604182612" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1604119176" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1604182612" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1462,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F194"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -1491,10 +1485,10 @@
       <c r="D1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1505,10 +1499,10 @@
       <c r="B2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -1525,10 +1519,10 @@
       <c r="B3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>68</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -1545,10 +1539,10 @@
       <c r="B4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -1565,10 +1559,10 @@
       <c r="B5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -1585,10 +1579,10 @@
       <c r="B6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -1598,7 +1592,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -1607,7 +1601,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1604119176" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1604182612" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1616,16 +1610,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1604119176" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1604119176" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1604119176" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1604119176" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1604182612" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1604182612" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1604182612" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1604182612" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1604119176" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1604182612" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
